--- a/data/exp_raw/wtables.xlsx
+++ b/data/exp_raw/wtables.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JuliaLifeVal\LifeVal\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blomerusjm\.julia\environments\WatVal\LifeVal\data\exp_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EB7F73-7B80-42E4-A62B-F57A1C1642BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2918E59A-155C-49F7-8FF5-4C0C976E61A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D59624B0-5FE8-4008-90B2-ACB26D417A75}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D59624B0-5FE8-4008-90B2-ACB26D417A75}"/>
   </bookViews>
   <sheets>
     <sheet name="prot" sheetId="1" r:id="rId1"/>
     <sheet name="ann" sheetId="2" r:id="rId2"/>
-    <sheet name="ufs" sheetId="3" r:id="rId3"/>
+    <sheet name="zero" sheetId="3" r:id="rId3"/>
     <sheet name="ASSA" sheetId="4" r:id="rId4"/>
     <sheet name="ulp" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -192,7 +192,7 @@
       <sheetName val="vt"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="1">
           <cell r="B1">
             <v>0.1</v>
@@ -214,10 +214,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -522,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2DB0A1-62D3-441D-A523-EB4B1C8D98C7}">
   <dimension ref="A1:F307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -10383,7 +10383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B349A557-3665-427F-9B46-B3077785F1B4}">
   <dimension ref="A1:F307"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
